--- a/Loxone/Loxone-HBA-Planning.xlsx
+++ b/Loxone/Loxone-HBA-Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\FH\2Semester-ma-repo\HB\mc-hba\Loxone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46316117-2254-48B5-8ABC-4113C2D973AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C49225-8388-4D13-9B36-3D8B7690E002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -671,6 +671,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -949,12 +957,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -969,8 +977,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,9 +991,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1204,7 +1212,7 @@
   </sheetPr>
   <dimension ref="A11:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1222,37 +1230,37 @@
       <c r="B11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="27" t="s">
         <v>4</v>
       </c>
       <c r="N11" s="29"/>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P11" s="29"/>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="28" t="s">
+      <c r="R11" s="28"/>
+      <c r="S11" s="27" t="s">
         <v>7</v>
       </c>
       <c r="T11" s="29"/>
-      <c r="U11" s="28" t="s">
+      <c r="U11" s="27" t="s">
         <v>8</v>
       </c>
       <c r="V11" s="29"/>
@@ -2157,11 +2165,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
@@ -2177,6 +2180,11 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2189,7 +2197,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2204,7 +2212,7 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="32"/>
@@ -2688,7 +2696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5857,7 +5865,7 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -5873,14 +5881,14 @@
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
       <c r="G1" s="41"/>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -6196,7 +6204,9 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6441,7 +6451,7 @@
       <c r="A13" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="45">
         <f>SUM(D2:D11)</f>
         <v>3999.7399999999993</v>
       </c>
@@ -6470,6 +6480,7 @@
     <hyperlink ref="F11" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -6485,22 +6496,22 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6514,7 +6525,7 @@
       <c r="C2" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>177</v>
       </c>
       <c r="E2" s="11" t="s">
